--- a/public/assets/import_siswa.xlsx
+++ b/public/assets/import_siswa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f58fb1f6abefc48/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f58fb1f6abefc48/Dokumen/application/ci4/pengaduan/public/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{5EBD404B-23BA-4550-AE39-6E356AED4211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E552DCA5-9687-4537-BAD3-E72E07624736}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{5EBD404B-23BA-4550-AE39-6E356AED4211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E0478B2-2ABB-4054-9720-12D1D0AC95A7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{99FD4E75-2EE6-47A9-9832-0FD9E9B11BEB}"/>
   </bookViews>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>no_induk</t>
-  </si>
-  <si>
-    <t>jenis_kelamin</t>
-  </si>
-  <si>
-    <t>tgl_lahir</t>
-  </si>
-  <si>
-    <t>alamat</t>
-  </si>
-  <si>
     <t>afasf</t>
   </si>
   <si>
@@ -66,10 +51,25 @@
     <t>asd</t>
   </si>
   <si>
-    <t>kelas</t>
-  </si>
-  <si>
     <t>IX A</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Kelas</t>
+  </si>
+  <si>
+    <t>No Induk</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>Alamat</t>
   </si>
 </sst>
 </file>
@@ -434,152 +434,155 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>421</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>44796</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
       <c r="C3">
         <v>435</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>44797</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>44798</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>44799</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>44800</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>44801</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
